--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D126D8E-9159-4432-ACD0-49475B2642DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924EEB49-CD1A-4C56-92C3-E60DB6C37806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Total / Day</t>
   </si>
@@ -40,6 +40,36 @@
   </si>
   <si>
     <t>69, 125, 167, 168, 169, 70, 121, 155, 122 , M48</t>
+  </si>
+  <si>
+    <t>Explore Section (Sequence as Below)</t>
+  </si>
+  <si>
+    <t>Recursion 1</t>
+  </si>
+  <si>
+    <t>Recursion 2</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t>Array and String</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Start Explore section</t>
   </si>
 </sst>
 </file>
@@ -86,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -95,6 +125,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -377,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +424,7 @@
     <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -401,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44018</v>
       </c>
@@ -414,86 +448,121 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44019</v>
+      </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924EEB49-CD1A-4C56-92C3-E60DB6C37806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313EA7B-3149-48CB-B14A-3403BC14DBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Total / Day</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Start Explore section</t>
+  </si>
+  <si>
+    <t>Memoization P70 (Recursive Way), P119, 509, 104, 50</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,9 +467,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="5">
+        <v>44020</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="F4" s="4" t="s">
         <v>6</v>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313EA7B-3149-48CB-B14A-3403BC14DBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFA090-458E-4943-80F2-37A094BA9233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Total / Day</t>
   </si>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>Memoization P70 (Recursive Way), P119, 509, 104, 50</t>
+  </si>
+  <si>
+    <t>P21 (Recursive Way), P779, P95, P912
+Recursion2 - Ch1 Divide&amp;Conquer</t>
   </si>
 </sst>
 </file>
@@ -119,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,11 +132,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,9 +434,11 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -437,235 +448,322 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>44018</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>44019</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>44020</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="4" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44021</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="4" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="4" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="4" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="4" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="4" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="4" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFA090-458E-4943-80F2-37A094BA9233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70895EA-CBF0-4E6B-B886-5C2D8B8D8DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Total / Day</t>
   </si>
@@ -77,6 +77,13 @@
   <si>
     <t>P21 (Recursive Way), P779, P95, P912
 Recursion2 - Ch1 Divide&amp;Conquer</t>
+  </si>
+  <si>
+    <t>Divide &amp; Conquer, Quick Sort, P98, P240, P77
+https://www.youtube.com/watch?v=MZaf_9IZCrc</t>
+  </si>
+  <si>
+    <t>P54</t>
   </si>
 </sst>
 </file>
@@ -519,10 +526,14 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44022</v>
+      </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -534,7 +545,9 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70895EA-CBF0-4E6B-B886-5C2D8B8D8DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F668904-BC08-4E4B-994C-B4606C1141C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1815" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Total / Day</t>
   </si>
@@ -83,7 +83,23 @@
 https://www.youtube.com/watch?v=MZaf_9IZCrc</t>
   </si>
   <si>
-    <t>P54</t>
+    <t>7/11/2020, 7/12/2020</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>July 6 - 9</t>
+  </si>
+  <si>
+    <t>July 9 - 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 12 - </t>
+  </si>
+  <si>
+    <t>Recursion 2 Finished, Binary Search Started: P54, P46, P94, 
+P100, P102, P153, P162, P278, P367, P374, P658, P704, P744</t>
   </si>
 </sst>
 </file>
@@ -433,15 +449,16 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -507,8 +524,12 @@
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -523,8 +544,12 @@
       <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -540,13 +565,17 @@
         <v>8</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F668904-BC08-4E4B-994C-B4606C1141C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0008B9FE-A91E-4F82-9630-193DA8E4EBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="1815" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Total / Day</t>
   </si>
@@ -89,17 +89,24 @@
     <t>check</t>
   </si>
   <si>
-    <t>July 6 - 9</t>
-  </si>
-  <si>
-    <t>July 9 - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 12 - </t>
-  </si>
-  <si>
     <t>Recursion 2 Finished, Binary Search Started: P54, P46, P94, 
 P100, P102, P153, P162, P278, P367, P374, P658, P704, P744</t>
+  </si>
+  <si>
+    <t>Binary Search Finished, except HARD questions;
+P154, P287, P349, P350, P719</t>
+  </si>
+  <si>
+    <t>July 12 - July 13</t>
+  </si>
+  <si>
+    <t>July 9 - July 12</t>
+  </si>
+  <si>
+    <t>July 6 - July 9</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -449,7 +456,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +465,7 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -528,7 +535,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -548,7 +555,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -564,7 +571,9 @@
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
@@ -575,7 +584,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -585,10 +594,14 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44025</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0008B9FE-A91E-4F82-9630-193DA8E4EBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7A9AEE-94BB-45A2-A624-64167FAA6FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1815" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="笔记" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Total / Day</t>
   </si>
@@ -107,6 +108,9 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>P94, P144, P145, Recursion method &amp; Iteration Method</t>
   </si>
 </sst>
 </file>
@@ -188,6 +192,204 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0726247-E329-48BA-8D98-0B791073FA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="66675" y="38100"/>
+          <a:ext cx="5715000" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276896</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8627DCDF-CE04-44A6-ADFC-E7A959903C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="0"/>
+          <a:ext cx="4810796" cy="3639058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>33339</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D83587-81CD-41F2-990B-A7BE80ACAF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10463894" y="27214"/>
+          <a:ext cx="4877481" cy="3600953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>392648</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA74036-04F0-4518-B468-018270E80502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15131142" y="54428"/>
+          <a:ext cx="5468113" cy="3610479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,7 +658,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,9 +813,13 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>44026</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -1515,4 +1721,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22318906-D15A-41F0-BEC1-17FA2B4176CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7A9AEE-94BB-45A2-A624-64167FAA6FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458ECBF5-D344-4BF2-86DE-333DEF6BFB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Total / Day</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>P94, P144, P145, Recursion method &amp; Iteration Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 13 - </t>
+  </si>
+  <si>
+    <t>P101, P105, P106, P112</t>
   </si>
 </sst>
 </file>
@@ -658,7 +664,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +800,9 @@
         <v>9</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -829,9 +837,13 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4">
+        <v>44027</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458ECBF5-D344-4BF2-86DE-333DEF6BFB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B05F170-B696-462A-90C9-8178A5B0347E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Total / Day</t>
   </si>
@@ -113,10 +113,17 @@
     <t>P94, P144, P145, Recursion method &amp; Iteration Method</t>
   </si>
   <si>
-    <t xml:space="preserve">July 13 - </t>
-  </si>
-  <si>
     <t>P101, P105, P106, P112</t>
+  </si>
+  <si>
+    <t>July 13 - July 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 16 - </t>
+  </si>
+  <si>
+    <t>P116, P117, P236, Binary Tree finished only one HARD question P297 Left
+P173, Binary Search Tree(BST) started, P700 Iteration Method Implemented</t>
   </si>
 </sst>
 </file>
@@ -163,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +189,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,14 +674,14 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -799,9 +809,11 @@
       <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -818,7 +830,9 @@
         <v>10</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -842,7 +856,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -852,10 +866,14 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44028</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B05F170-B696-462A-90C9-8178A5B0347E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321D9E9-3FDD-466B-9B5A-4FFDDC0FE7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Total / Day</t>
   </si>
@@ -124,6 +124,13 @@
   <si>
     <t>P116, P117, P236, Binary Tree finished only one HARD question P297 Left
 P173, Binary Search Tree(BST) started, P700 Iteration Method Implemented</t>
+  </si>
+  <si>
+    <t>7/17/2020, 7/15/2020</t>
+  </si>
+  <si>
+    <t>P450, P701, P220, P235, P703
+220: TreeSet; 703: PriorityQueue</t>
   </si>
 </sst>
 </file>
@@ -674,7 +681,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,10 +889,14 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321D9E9-3FDD-466B-9B5A-4FFDDC0FE7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA05826-686C-4166-92EF-4E4C8726C0F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2355" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Total / Day</t>
   </si>
@@ -107,9 +107,6 @@
     <t>July 6 - July 9</t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>P94, P144, P145, Recursion method &amp; Iteration Method</t>
   </si>
   <si>
@@ -117,20 +114,26 @@
   </si>
   <si>
     <t>July 13 - July 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 16 - </t>
   </si>
   <si>
     <t>P116, P117, P236, Binary Tree finished only one HARD question P297 Left
 P173, Binary Search Tree(BST) started, P700 Iteration Method Implemented</t>
   </si>
   <si>
-    <t>7/17/2020, 7/15/2020</t>
-  </si>
-  <si>
-    <t>P450, P701, P220, P235, P703
+    <t>(First 100 Questions) P450, P701, P220, P235, P703
 220: TreeSet; 703: PriorityQueue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 16 - July 19 </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7/17/2020, 7/18/2020</t>
+  </si>
+  <si>
+    <t>P108, 110, 202, 205, 217, 219, 387, 599, 705, 706</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +155,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +207,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,7 +693,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>22</v>
@@ -817,10 +829,10 @@
         <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -836,9 +848,11 @@
       <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,15 +861,19 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7">
+        <v>44031</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -863,7 +881,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -879,7 +897,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -891,11 +909,11 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -904,9 +922,13 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>44031</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1759,6 +1781,7 @@
       <c r="D168" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA05826-686C-4166-92EF-4E4C8726C0F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877AE491-0661-4B03-9F79-2F643B7D1990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2355" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Total / Day</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>P108, 110, 202, 205, 217, 219, 387, 599, 705, 706</t>
+  </si>
+  <si>
+    <t>P49, P454, P652, P771, Review P3</t>
+  </si>
+  <si>
+    <t>Cook</t>
   </si>
 </sst>
 </file>
@@ -693,7 +699,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,11 +942,17 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>44032</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877AE491-0661-4B03-9F79-2F643B7D1990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBDF158-10CE-4624-8308-B4CA78254970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,28 +16,28 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="笔记" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Total / Day</t>
   </si>
   <si>
     <t>Details</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>69, 125, 167, 168, 169, 70, 121, 155, 122 , M48</t>
@@ -127,9 +127,6 @@
     <t xml:space="preserve">July 16 - July 19 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>7/17/2020, 7/18/2020</t>
   </si>
   <si>
@@ -140,6 +137,22 @@
   </si>
   <si>
     <t>Cook</t>
+  </si>
+  <si>
+    <t>Jogging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 19 - July 21 </t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 21 - July  </t>
+  </si>
+  <si>
+    <t>P118, P347, P380, P498, P724, P747
+HashTable finished, Array and String Started</t>
   </si>
 </sst>
 </file>
@@ -699,7 +712,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,8 +732,9 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+      <c r="D1" s="3">
+        <f>SUM(D2:D15)</f>
+        <v>80</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -735,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -751,12 +765,12 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -767,18 +781,20 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -787,18 +803,20 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -807,38 +825,42 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="5">
+        <v>13</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -847,18 +869,20 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,18 +891,20 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44031</v>
+        <v>35</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -887,15 +913,19 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -903,25 +933,29 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -933,9 +967,11 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -947,22 +983,32 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44033</v>
+      </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBDF158-10CE-4624-8308-B4CA78254970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B5585-FFEE-47C4-A5CC-41BD70068387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Total / Day</t>
   </si>
@@ -153,6 +153,9 @@
   <si>
     <t>P118, P347, P380, P498, P724, P747
 HashTable finished, Array and String Started</t>
+  </si>
+  <si>
+    <t>P27, P151, P189, P209, P485</t>
   </si>
 </sst>
 </file>
@@ -711,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,11 +1017,19 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>44034</v>
+      </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B5585-FFEE-47C4-A5CC-41BD70068387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47A505F-338A-4C8E-9265-68305A7ABFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Total / Day</t>
   </si>
@@ -148,14 +148,17 @@
     <t>Check</t>
   </si>
   <si>
-    <t xml:space="preserve">July 21 - July  </t>
-  </si>
-  <si>
     <t>P118, P347, P380, P498, P724, P747
 HashTable finished, Array and String Started</t>
   </si>
   <si>
     <t>P27, P151, P189, P209, P485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 21 - July 23 </t>
+  </si>
+  <si>
+    <t>P283, P557, P707 NG</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,8 +739,8 @@
         <v>1</v>
       </c>
       <c r="D1" s="3">
-        <f>SUM(D2:D15)</f>
-        <v>80</v>
+        <f>SUM(D2:D157)</f>
+        <v>88</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -925,9 +928,11 @@
       <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1004,7 +1009,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5">
         <v>6</v>
@@ -1022,7 +1027,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
@@ -1035,10 +1040,16 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4">
+        <v>44035</v>
+      </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47A505F-338A-4C8E-9265-68305A7ABFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232F4683-165C-428C-B8B8-EDE837221FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Total / Day</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>P283, P557, P707 NG</t>
+  </si>
+  <si>
+    <t>P142, P160, P203, P234, P328</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +743,7 @@
       </c>
       <c r="D1" s="3">
         <f>SUM(D2:D157)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1056,10 +1059,16 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4">
+        <v>44036</v>
+      </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232F4683-165C-428C-B8B8-EDE837221FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FBD28-C826-41DB-BCBE-09449F5AEC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2475" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Total / Day</t>
   </si>
@@ -145,9 +145,6 @@
     <t xml:space="preserve">July 19 - July 21 </t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>P118, P347, P380, P498, P724, P747
 HashTable finished, Array and String Started</t>
   </si>
@@ -162,6 +159,33 @@
   </si>
   <si>
     <t>P142, P160, P203, P234, P328</t>
+  </si>
+  <si>
+    <t>7/25/2020, 7/26/2020</t>
+  </si>
+  <si>
+    <t>July 23 - July 26</t>
+  </si>
+  <si>
+    <t>N-ary Tree</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>July 26 - July 26</t>
+  </si>
+  <si>
+    <t>Queue &amp; Stack</t>
+  </si>
+  <si>
+    <t>July 26 -</t>
+  </si>
+  <si>
+    <t>Anniversay, Cook</t>
+  </si>
+  <si>
+    <t>P61, P138, P200, P429, P430, P559, P589, P590, P622, P752</t>
   </si>
 </sst>
 </file>
@@ -452,6 +476,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469167</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>136869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0598A5F3-DC0D-4344-ADF8-22ACE307DEB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81644" y="3755571"/>
+          <a:ext cx="7735380" cy="5715798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -720,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +797,8 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="70.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -743,7 +812,7 @@
       </c>
       <c r="D1" s="3">
         <f>SUM(D2:D157)</f>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -910,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>34</v>
@@ -935,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -953,8 +1022,12 @@
       <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -968,9 +1041,15 @@
         <v>7</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -984,9 +1063,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1012,7 +1095,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5">
         <v>6</v>
@@ -1030,7 +1113,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
@@ -1048,7 +1131,7 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
@@ -1064,7 +1147,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
@@ -1075,11 +1158,19 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1880,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22318906-D15A-41F0-BEC1-17FA2B4176CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FBD28-C826-41DB-BCBE-09449F5AEC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD17AA-F233-4E18-80D7-511BEDCCD5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2475" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2430" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="笔记" sheetId="2" r:id="rId2"/>
+    <sheet name="一刷看答案" sheetId="3" r:id="rId2"/>
+    <sheet name="笔记" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Total / Day</t>
   </si>
@@ -186,6 +187,9 @@
   </si>
   <si>
     <t>P61, P138, P200, P429, P430, P559, P589, P590, P622, P752</t>
+  </si>
+  <si>
+    <t>P133, P150, P225, P232, P279, P494, P739</t>
   </si>
 </sst>
 </file>
@@ -238,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -788,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +817,7 @@
       </c>
       <c r="D1" s="3">
         <f>SUM(D2:D157)</f>
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1176,10 +1181,16 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4">
+        <v>44039</v>
+      </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1968,10 +1979,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABA50E-0128-4FDD-A4EC-1CCC7866BDAC}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>44039</v>
+      </c>
+      <c r="B1">
+        <v>133</v>
+      </c>
+      <c r="C1">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22318906-D15A-41F0-BEC1-17FA2B4176CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD17AA-F233-4E18-80D7-511BEDCCD5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E076852-AC77-49CA-A4C0-C29247DC68A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="2430" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Total / Day</t>
   </si>
@@ -171,18 +171,12 @@
     <t>N-ary Tree</t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>July 26 - July 26</t>
   </si>
   <si>
     <t>Queue &amp; Stack</t>
   </si>
   <si>
-    <t>July 26 -</t>
-  </si>
-  <si>
     <t>Anniversay, Cook</t>
   </si>
   <si>
@@ -190,6 +184,18 @@
   </si>
   <si>
     <t>P133, P150, P225, P232, P279, P494, P739</t>
+  </si>
+  <si>
+    <t>July 26 - July 28</t>
+  </si>
+  <si>
+    <t>Array 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 29 - July </t>
+  </si>
+  <si>
+    <t>P394, P542, P733, P841, P43</t>
   </si>
 </sst>
 </file>
@@ -794,7 +800,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +823,7 @@
       </c>
       <c r="D1" s="3">
         <f>SUM(D2:D157)</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1050,10 +1056,10 @@
         <v>42</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1069,11 +1075,13 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,9 +1098,13 @@
       <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1168,13 +1180,13 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5">
         <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1186,7 +1198,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5">
         <v>7</v>
@@ -1197,11 +1209,19 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4">
+        <v>44040</v>
+      </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1980,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABA50E-0128-4FDD-A4EC-1CCC7866BDAC}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2011,7 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9">
         <v>44039</v>
       </c>
@@ -2000,6 +2020,28 @@
       </c>
       <c r="C1">
         <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44040</v>
+      </c>
+      <c r="B2">
+        <v>394</v>
+      </c>
+      <c r="C2">
+        <v>733</v>
+      </c>
+      <c r="D2">
+        <v>841</v>
+      </c>
+      <c r="E2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44041</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22318906-D15A-41F0-BEC1-17FA2B4176CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E076852-AC77-49CA-A4C0-C29247DC68A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7B6210-FB03-4747-BD60-CD54D3F1DE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2430" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="2385" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Total / Day</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>P394, P542, P733, P841, P43</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>P977, P1089, P1295, P1346</t>
   </si>
 </sst>
 </file>
@@ -800,7 +806,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +829,7 @@
       </c>
       <c r="D1" s="3">
         <f>SUM(D2:D157)</f>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1217,7 +1223,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>32</v>
@@ -1227,11 +1233,19 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4">
+        <v>44041</v>
+      </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7B6210-FB03-4747-BD60-CD54D3F1DE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B540A31D-D06B-4519-AF22-0D0A64487F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="2385" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Total / Day</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Array 101</t>
   </si>
   <si>
-    <t xml:space="preserve">July 29 - July </t>
-  </si>
-  <si>
     <t>P394, P542, P733, P841, P43</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>P977, P1089, P1295, P1346</t>
+  </si>
+  <si>
+    <t>July 29 - July  30</t>
+  </si>
+  <si>
+    <t>P47, P414, P448, P905, P941, P1051, P1299</t>
   </si>
 </sst>
 </file>
@@ -805,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,7 @@
       </c>
       <c r="D1" s="3">
         <f>SUM(D2:D157)</f>
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1107,9 +1110,11 @@
       <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1220,7 +1225,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
@@ -1238,23 +1243,29 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="5">
         <v>4</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4">
+        <v>44042</v>
+      </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2014,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABA50E-0128-4FDD-A4EC-1CCC7866BDAC}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,6 +2067,14 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>44042</v>
+      </c>
+      <c r="B4">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B540A31D-D06B-4519-AF22-0D0A64487F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77161996-4F7F-4150-9067-08C8BD3309E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="2385" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Total / Day</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>P47, P414, P448, P905, P941, P1051, P1299</t>
+  </si>
+  <si>
+    <t>P55, P56, P109, P113, P114, P129</t>
   </si>
 </sst>
 </file>
@@ -808,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +835,7 @@
       </c>
       <c r="D1" s="3">
         <f>SUM(D2:D157)</f>
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1272,10 +1275,16 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4">
+        <v>44043</v>
+      </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2025,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABA50E-0128-4FDD-A4EC-1CCC7866BDAC}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,6 +2084,17 @@
       </c>
       <c r="B4">
         <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>44043</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77161996-4F7F-4150-9067-08C8BD3309E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEB38BB-2D25-4478-A403-8E65C58EC231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="2385" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Total / Day</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>P55, P56, P109, P113, P114, P129</t>
+  </si>
+  <si>
+    <t>P130, P59, P62(DP思想), P63, P64, P71(split), P73, P74, P107, P111, P75,P78</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +838,7 @@
       </c>
       <c r="D1" s="3">
         <f>SUM(D2:D157)</f>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1291,10 +1294,16 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="4">
+        <v>44044</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -2034,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ABA50E-0128-4FDD-A4EC-1CCC7866BDAC}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,6 +2104,23 @@
       </c>
       <c r="C5">
         <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44044</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Log_LeetCode.xlsx
+++ b/Log_LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shado\Desktop\Work_Space\LeetCode_JJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEB38BB-2D25-4478-A403-8E65C58EC231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF532AE-9427-44E4-B189-DB8C6DCD26F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
